--- a/data/trans_bre/P6905-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 20,04</t>
+          <t>-15,14; 21,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 30,72</t>
+          <t>-8,06; 31,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 10,34</t>
+          <t>-31,41; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 25,22</t>
+          <t>-9,44; 24,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 79,31</t>
+          <t>-38,12; 79,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 135,38</t>
+          <t>-20,07; 127,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 41,51</t>
+          <t>-60,49; 37,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 112,49</t>
+          <t>-22,73; 107,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 60,82</t>
+          <t>19,6; 60,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 55,93</t>
+          <t>6,12; 56,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 32,65</t>
+          <t>-17,46; 31,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 28,07</t>
+          <t>-7,74; 27,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,6; 395,26</t>
+          <t>47,13; 386,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 318,63</t>
+          <t>16,98; 332,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,26; 154,05</t>
+          <t>-40,53; 162,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 186,82</t>
+          <t>-24,9; 187,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 29,7</t>
+          <t>-27,05; 31,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 34,62</t>
+          <t>-5,32; 34,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 66,45</t>
+          <t>2,68; 69,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 28,59</t>
+          <t>-12,1; 30,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 83,52</t>
+          <t>-63,03; 90,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 194,79</t>
+          <t>-22,77; 200,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 419,03</t>
+          <t>8,15; 433,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 203,54</t>
+          <t>-45,27; 206,33</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 37,59</t>
+          <t>4,2; 37,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 26,9</t>
+          <t>-1,53; 25,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 34,87</t>
+          <t>8,65; 35,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 23,57</t>
+          <t>-1,66; 22,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,39; 160,91</t>
+          <t>13,54; 157,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 177,14</t>
+          <t>-9,14; 158,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,28; 190,86</t>
+          <t>28,66; 194,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 189,36</t>
+          <t>-7,97; 174,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 15,69</t>
+          <t>-12,39; 14,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 29,33</t>
+          <t>-14,17; 27,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 34,59</t>
+          <t>-2,67; 32,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 24,53</t>
+          <t>-14,6; 25,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 141,04</t>
+          <t>-50,89; 124,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 148,06</t>
+          <t>-34,63; 149,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 190,76</t>
+          <t>-8,47; 173,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,96; 210,65</t>
+          <t>-44,17; 204,58</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,26</t>
+          <t>3,36; 18,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 24,01</t>
+          <t>6,34; 23,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 22,8</t>
+          <t>5,94; 22,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 17,31</t>
+          <t>-2,92; 16,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,99; 71,01</t>
+          <t>10,35; 70,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,47; 105,1</t>
+          <t>21,45; 104,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,84; 95,77</t>
+          <t>19,03; 96,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 88,08</t>
+          <t>-6,62; 85,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
